--- a/Project(s)/Prj_1/Raw Data/Dir_Struct.xlsx
+++ b/Project(s)/Prj_1/Raw Data/Dir_Struct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karbhara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Demo\Bioinformatics\Project(s)\Prj_1\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE6CD5-9B9D-4F4E-A175-22F28032D26B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB5F26E-9F33-48A6-97F3-E4FD738EEF4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="33">
   <si>
     <t>Level 1</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Group_6</t>
+  </si>
+  <si>
+    <t>Group_7</t>
   </si>
 </sst>
 </file>
@@ -454,9 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1355,59 +1360,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Project(s)/Prj_1/Raw Data/Dir_Struct.xlsx
+++ b/Project(s)/Prj_1/Raw Data/Dir_Struct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Demo\Bioinformatics\Project(s)\Prj_1\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB5F26E-9F33-48A6-97F3-E4FD738EEF4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A8A130-27AE-4F56-B96D-4FB63640B37B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="34">
   <si>
     <t>Level 1</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Group_7</t>
+  </si>
+  <si>
+    <t>Level 5</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,10 +471,10 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,938 +487,1229 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>32</v>
       </c>
